--- a/docs/spreadsheet illustrations.xlsx
+++ b/docs/spreadsheet illustrations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25602" windowHeight="10380" firstSheet="1" activeTab="1" xr2:uid="{C55A22BB-D4E7-40F3-AC2B-802623670D01}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25602" windowHeight="10380" activeTab="2" xr2:uid="{C55A22BB-D4E7-40F3-AC2B-802623670D01}"/>
   </bookViews>
   <sheets>
     <sheet name="Simple Reproduction" sheetId="9" r:id="rId1"/>
@@ -1422,9 +1422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982C02D3-D3A2-4B19-B233-AA79ED6FA192}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:P25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -1697,9 +1695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EECE59FE-C8CF-46B2-8E67-2ECAE9AA0094}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -1977,8 +1973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DFFBB03-2118-4987-A5B0-62F260E68AFF}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/docs/spreadsheet illustrations.xlsx
+++ b/docs/spreadsheet illustrations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25602" windowHeight="10380" activeTab="2" xr2:uid="{C55A22BB-D4E7-40F3-AC2B-802623670D01}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25602" windowHeight="10380" firstSheet="1" activeTab="7" xr2:uid="{C55A22BB-D4E7-40F3-AC2B-802623670D01}"/>
   </bookViews>
   <sheets>
     <sheet name="Simple Reproduction" sheetId="9" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Marx 1" sheetId="4" r:id="rId5"/>
     <sheet name="Marx 2" sheetId="3" r:id="rId6"/>
     <sheet name="constant shares of I surplus" sheetId="2" r:id="rId7"/>
+    <sheet name="Bortkiewicz" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -29,8 +30,156 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Alan Freeman</author>
+  </authors>
+  <commentList>
+    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">S = output - V
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Capital = C+V</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>r = S/(C+V)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Profit = r * Invested Capital</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Transfer = profit -S</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Price of production = C+V+Profit
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Output/Input (used to calculate the values of inputs in the next period)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Equal to  the value of constant capital in this department at the start of the previous period, times the relative price of the output of Department I at the end of the last period</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Equal to  the value of the wage in this department at the start of the previous period, times the relative price of the output of Department II at the end of the last period</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="97">
   <si>
     <t>DI</t>
   </si>
@@ -78,9 +227,6 @@
   </si>
   <si>
     <t>Growth</t>
-  </si>
-  <si>
-    <t>Constant share of the surplus product of I</t>
   </si>
   <si>
     <t>Total Consumption</t>
@@ -242,6 +388,111 @@
   <si>
     <t>New MELT</t>
   </si>
+  <si>
+    <t>The price of production of each output serves as the value of the corresponding input in the next period</t>
+  </si>
+  <si>
+    <t>BUT: value is defined within the system</t>
+  </si>
+  <si>
+    <t>Note: prices are converging to simultaneous prices</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Relative price</t>
+  </si>
+  <si>
+    <t>Price of production</t>
+  </si>
+  <si>
+    <t>Transfer</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>profit rate</t>
+  </si>
+  <si>
+    <t>Invested capital</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>Period 3</t>
+  </si>
+  <si>
+    <t>Prices of production are completely consistent with Marx</t>
+  </si>
+  <si>
+    <t>But this was never required by Marx's transformation procedure</t>
+  </si>
+  <si>
+    <t>Period 2</t>
+  </si>
+  <si>
+    <t>(relative price of wage goods)</t>
+  </si>
+  <si>
+    <t>(relative price of constant capital)</t>
+  </si>
+  <si>
+    <t>Profit rate</t>
+  </si>
+  <si>
+    <t>L(=V+S)</t>
+  </si>
+  <si>
+    <t>Calculation of price of production</t>
+  </si>
+  <si>
+    <t>Inputs</t>
+  </si>
+  <si>
+    <t>Period 1</t>
+  </si>
+  <si>
+    <t>E5=D6  (capitalist consumption = output of department III)</t>
+  </si>
+  <si>
+    <t>E4=C6 (wages = output of department II)</t>
+  </si>
+  <si>
+    <t>E3=B6 (constant capital consumed = output of department 1)</t>
+  </si>
+  <si>
+    <t>Conditions for reproduction</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>A temporal single system solution to the  system proposed by Bortkiewicz</t>
+  </si>
+  <si>
+    <t>Constant share of the surplus product of I (an attempt to see if a different assumption yields a possible trajectory)</t>
+  </si>
+  <si>
+    <t>This example is not included among the projects</t>
+  </si>
+  <si>
+    <t>System does reproduce exactly (costs of the inputs of C are note the same as the price of the output of capital goods)</t>
+  </si>
+  <si>
+    <t>However, prices after transformation are different from prices at the beginning</t>
+  </si>
 </sst>
 </file>
 
@@ -255,7 +506,7 @@
     <numFmt numFmtId="167" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_-[$$-47C]* #,##0_-;\-[$$-47C]* #,##0_-;_-[$$-47C]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,21 +543,171 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -315,7 +716,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -341,6 +742,92 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="6" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1438,10 +1925,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E1" s="13">
         <v>1</v>
@@ -1461,10 +1948,10 @@
         <v>6</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1544,12 +2031,12 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="13">
         <f>0.2</f>
@@ -1594,7 +2081,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12">
         <f>C5-C13</f>
@@ -1623,7 +2110,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <f>C5*$E$9</f>
@@ -1677,7 +2164,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H16">
         <f>H13/H14</f>
@@ -1713,7 +2200,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E1" s="13">
         <v>1</v>
@@ -1721,7 +2208,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2">
         <v>0.5</v>
@@ -1814,7 +2301,7 @@
     </row>
     <row r="8" spans="1:11" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" ref="C8:F8" si="1">C3</f>
@@ -1833,19 +2320,19 @@
         <v>Out(total)</v>
       </c>
       <c r="G8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="J8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1973,7 +2460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DFFBB03-2118-4987-A5B0-62F260E68AFF}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -1995,12 +2482,12 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="13">
         <v>1</v>
@@ -2008,7 +2495,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="G4" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4" s="18"/>
     </row>
@@ -2026,37 +2513,37 @@
         <v>6</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="I5" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="K5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="M5" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="P5" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -2242,12 +2729,12 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="G12" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H12" s="18"/>
     </row>
@@ -2265,37 +2752,37 @@
         <v>6</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="I13" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="M13" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="M13" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="N13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="O13" s="6" t="s">
+      <c r="P13" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -2504,10 +2991,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F1" s="7">
         <v>1</v>
@@ -2515,10 +3002,10 @@
     </row>
     <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>5</v>
@@ -2530,15 +3017,15 @@
         <v>6</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>1000</v>
@@ -2566,7 +3053,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5">
         <v>2000</v>
@@ -2592,7 +3079,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6">
         <v>2000</v>
@@ -2679,7 +3166,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="7">
         <v>0.1</v>
@@ -2704,7 +3191,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>9</v>
@@ -2713,16 +3200,16 @@
         <v>10</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>11</v>
@@ -2731,16 +3218,16 @@
         <v>15</v>
       </c>
       <c r="P2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="S2" s="12" t="s">
         <v>26</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -2777,14 +3264,14 @@
         <v>500</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L3" s="2">
         <f>D3</f>
         <v>1000</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N3" s="3">
         <f>E3/(C3+D3)</f>
@@ -2832,14 +3319,14 @@
         <v>150</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L4" s="2">
         <f>D4</f>
         <v>750</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N4" s="3">
         <f>E4/(C4+D4)</f>
@@ -2891,14 +3378,14 @@
         <v>650</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L5" s="2">
         <f>D5</f>
         <v>1750</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N5" s="3">
         <f>E5/(C5+D5)</f>
@@ -2914,7 +3401,7 @@
         <v>500</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6">
         <f>F4/F3</f>
@@ -3098,7 +3585,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11" s="10">
         <f>F9/F8</f>
@@ -3285,7 +3772,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G16" s="10">
         <f>F14/F13</f>
@@ -3469,7 +3956,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G21" s="10">
         <f>F19/F18</f>
@@ -3652,7 +4139,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G26" s="10">
         <f>F24/F23</f>
@@ -3835,7 +4322,7 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G31" s="10">
         <f>F29/F28</f>
@@ -3977,7 +4464,7 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G36" s="10">
         <f>F34/F33</f>
@@ -4144,7 +4631,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -4154,13 +4641,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7047CB-DBCC-4C79-8E88-4CF9C44E7C42}">
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4170,1423 +4657,2363 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H3" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>4000</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>1000</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>1000</v>
-      </c>
-      <c r="F3">
-        <f>SUM(C3:E3)</f>
-        <v>6000</v>
-      </c>
-      <c r="G3">
-        <f>D3/C3</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4">
-        <f>C4/C3</f>
-        <v>0.375</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1500</v>
-      </c>
-      <c r="D4">
-        <v>750</v>
-      </c>
-      <c r="E4">
-        <v>750</v>
       </c>
       <c r="F4">
         <f>SUM(C4:E4)</f>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="G4">
         <f>D4/C4</f>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
+        <f>C5/C4</f>
+        <v>0.375</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1500</v>
+      </c>
+      <c r="D5">
+        <v>750</v>
+      </c>
+      <c r="E5">
+        <v>750</v>
+      </c>
+      <c r="F5">
+        <f>SUM(C5:E5)</f>
+        <v>3000</v>
+      </c>
+      <c r="G5">
         <f>D5/C5</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <f>D6/C6</f>
         <v>0.31818181818181818</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C5">
-        <f>SUM(C3:C4)</f>
+      <c r="C6">
+        <f>SUM(C4:C5)</f>
         <v>5500</v>
       </c>
-      <c r="D5">
-        <f t="shared" ref="D5:F5" si="0">SUM(D3:D4)</f>
+      <c r="D6">
+        <f t="shared" ref="D6:F6" si="0">SUM(D4:D5)</f>
         <v>1750</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <f t="shared" si="0"/>
         <v>1750</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <f t="shared" si="0"/>
         <v>9000</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="C6">
-        <f>F3-C5</f>
+      <c r="C7">
+        <f>F4-C6</f>
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="1">
-        <f>C3+C6*0.8</f>
+      <c r="C9" s="1">
+        <f>C4+C7*0.8</f>
         <v>4400</v>
-      </c>
-      <c r="D8" s="1">
-        <f>C8*G3</f>
-        <v>1100</v>
-      </c>
-      <c r="E8" s="1">
-        <f>D8</f>
-        <v>1100</v>
-      </c>
-      <c r="F8" s="1">
-        <f>SUM(C8:E8)</f>
-        <v>6600</v>
-      </c>
-      <c r="G8">
-        <f>D8/C8</f>
-        <v>0.25</v>
-      </c>
-      <c r="H8" s="2">
-        <f>C8-C3</f>
-        <v>400</v>
-      </c>
-      <c r="I8" s="2">
-        <f>D8-D3</f>
-        <v>100</v>
-      </c>
-      <c r="J8" s="2">
-        <f>E3-(H8+I8)</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9">
-        <f>C9/C8</f>
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <f>C4+C6-H8</f>
-        <v>1600</v>
       </c>
       <c r="D9" s="1">
         <f>C9*G4</f>
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="E9" s="1">
         <f>D9</f>
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="F9" s="1">
         <f>SUM(C9:E9)</f>
-        <v>3200</v>
+        <v>6600</v>
       </c>
       <c r="G9">
         <f>D9/C9</f>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H9" s="2">
         <f>C9-C4</f>
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="I9" s="2">
         <f>D9-D4</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J9" s="2">
         <f>E4-(H9+I9)</f>
-        <v>600</v>
-      </c>
-      <c r="L9" s="3">
-        <f>A9/A4</f>
-        <v>0.96969696969696972</v>
-      </c>
-      <c r="M9" s="5"/>
+        <v>500</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
+        <f>C10/C9</f>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <f>C5+C7-H9</f>
+        <v>1600</v>
+      </c>
+      <c r="D10" s="1">
+        <f>C10*G5</f>
+        <v>800</v>
+      </c>
+      <c r="E10" s="1">
+        <f>D10</f>
+        <v>800</v>
+      </c>
+      <c r="F10" s="1">
+        <f>SUM(C10:E10)</f>
+        <v>3200</v>
+      </c>
+      <c r="G10">
         <f>D10/C10</f>
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="2">
+        <f>C10-C5</f>
+        <v>100</v>
+      </c>
+      <c r="I10" s="2">
+        <f>D10-D5</f>
+        <v>50</v>
+      </c>
+      <c r="J10" s="2">
+        <f>E5-(H10+I10)</f>
+        <v>600</v>
+      </c>
+      <c r="L10" s="3">
+        <f>A10/A5</f>
+        <v>0.96969696969696972</v>
+      </c>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <f>D11/C11</f>
         <v>0.31666666666666665</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="1">
-        <f>SUM(C8:C9)</f>
+      <c r="C11" s="1">
+        <f>SUM(C9:C10)</f>
         <v>6000</v>
       </c>
-      <c r="D10" s="1">
-        <f t="shared" ref="D10:I10" si="1">SUM(D8:D9)</f>
+      <c r="D11" s="1">
+        <f t="shared" ref="D11:I11" si="1">SUM(D9:D10)</f>
         <v>1900</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E11" s="1">
         <f t="shared" si="1"/>
         <v>1900</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F11" s="1">
         <f t="shared" si="1"/>
         <v>9800</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H11" s="1">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I11" s="1">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="J10" s="1">
-        <f>SUM(J8:J9)</f>
+      <c r="J11" s="1">
+        <f>SUM(J9:J10)</f>
         <v>1100</v>
       </c>
-      <c r="K10" s="4">
-        <f>E10/(C10+D10)</f>
+      <c r="K11" s="4">
+        <f>E11/(C11+D11)</f>
         <v>0.24050632911392406</v>
       </c>
-      <c r="L10" s="9">
-        <f>A10/A5</f>
+      <c r="L11" s="9">
+        <f>A11/A6</f>
         <v>0.99523809523809526</v>
       </c>
-      <c r="M10" s="5">
-        <f>F10/F5-1</f>
+      <c r="M11" s="5">
+        <f>F11/F6-1</f>
         <v>8.8888888888888795E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="1" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="1">
-        <f>F8-C10</f>
+      <c r="C12" s="1">
+        <f>F9-C11</f>
         <v>600</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="7"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="1">
-        <f>C8+C11*0.8</f>
+      <c r="C14" s="1">
+        <f>C9+C12*0.8</f>
         <v>4880</v>
-      </c>
-      <c r="D13" s="1">
-        <f>C13*G8</f>
-        <v>1220</v>
-      </c>
-      <c r="E13" s="1">
-        <f>D13</f>
-        <v>1220</v>
-      </c>
-      <c r="F13" s="1">
-        <f>SUM(C13:E13)</f>
-        <v>7320</v>
-      </c>
-      <c r="G13">
-        <f>D13/C13</f>
-        <v>0.25</v>
-      </c>
-      <c r="H13" s="2">
-        <f>C13-C8</f>
-        <v>480</v>
-      </c>
-      <c r="I13" s="2">
-        <f>D13-D8</f>
-        <v>120</v>
-      </c>
-      <c r="J13" s="2">
-        <f>E8-(H13+I13)</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14">
-        <f>C14/C13</f>
-        <v>0.35245901639344263</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1">
-        <f>C9+C11-H13</f>
-        <v>1720</v>
       </c>
       <c r="D14" s="1">
         <f>C14*G9</f>
-        <v>860</v>
+        <v>1220</v>
       </c>
       <c r="E14" s="1">
         <f>D14</f>
-        <v>860</v>
+        <v>1220</v>
       </c>
       <c r="F14" s="1">
         <f>SUM(C14:E14)</f>
-        <v>3440</v>
+        <v>7320</v>
       </c>
       <c r="G14">
         <f>D14/C14</f>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H14" s="2">
         <f>C14-C9</f>
-        <v>120</v>
+        <v>480</v>
       </c>
       <c r="I14" s="2">
         <f>D14-D9</f>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="J14" s="2">
         <f>E9-(H14+I14)</f>
-        <v>620</v>
-      </c>
-      <c r="L14" s="3">
-        <f>A14/A9</f>
-        <v>0.96926229508196715</v>
-      </c>
-      <c r="M14" s="5"/>
+        <v>500</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
+        <f>C15/C14</f>
+        <v>0.35245901639344263</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <f>C10+C12-H14</f>
+        <v>1720</v>
+      </c>
+      <c r="D15" s="1">
+        <f>C15*G10</f>
+        <v>860</v>
+      </c>
+      <c r="E15" s="1">
+        <f>D15</f>
+        <v>860</v>
+      </c>
+      <c r="F15" s="1">
+        <f>SUM(C15:E15)</f>
+        <v>3440</v>
+      </c>
+      <c r="G15">
         <f>D15/C15</f>
+        <v>0.5</v>
+      </c>
+      <c r="H15" s="2">
+        <f>C15-C10</f>
+        <v>120</v>
+      </c>
+      <c r="I15" s="2">
+        <f>D15-D10</f>
+        <v>60</v>
+      </c>
+      <c r="J15" s="2">
+        <f>E10-(H15+I15)</f>
+        <v>620</v>
+      </c>
+      <c r="L15" s="3">
+        <f>A15/A10</f>
+        <v>0.96926229508196715</v>
+      </c>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <f>D16/C16</f>
         <v>0.31515151515151513</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="1">
-        <f>SUM(C13:C14)</f>
+      <c r="C16" s="1">
+        <f>SUM(C14:C15)</f>
         <v>6600</v>
       </c>
-      <c r="D15" s="1">
-        <f t="shared" ref="D15:F15" si="2">SUM(D13:D14)</f>
+      <c r="D16" s="1">
+        <f t="shared" ref="D16:F16" si="2">SUM(D14:D15)</f>
         <v>2080</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E16" s="1">
         <f t="shared" si="2"/>
         <v>2080</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F16" s="1">
         <f t="shared" si="2"/>
         <v>10760</v>
       </c>
-      <c r="H15" s="1">
-        <f t="shared" ref="H15:I15" si="3">SUM(H13:H14)</f>
+      <c r="H16" s="1">
+        <f t="shared" ref="H16:I16" si="3">SUM(H14:H15)</f>
         <v>600</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I16" s="1">
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="J15" s="1">
-        <f>SUM(J13:J14)</f>
+      <c r="J16" s="1">
+        <f>SUM(J14:J15)</f>
         <v>1120</v>
       </c>
-      <c r="K15" s="4">
-        <f>E15/(C15+D15)</f>
+      <c r="K16" s="4">
+        <f>E16/(C16+D16)</f>
         <v>0.23963133640552994</v>
       </c>
-      <c r="L15" s="9">
-        <f>A15/A10</f>
+      <c r="L16" s="9">
+        <f>A16/A11</f>
         <v>0.99521531100478466</v>
       </c>
-      <c r="M15" s="5">
-        <f>F15/F10-1</f>
+      <c r="M16" s="5">
+        <f>F16/F11-1</f>
         <v>9.7959183673469452E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="1" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="1">
-        <f>F13-C15</f>
+      <c r="C17" s="1">
+        <f>F14-C16</f>
         <v>720</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" t="s">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="1">
-        <f>C13+C16*0.8</f>
+      <c r="C19" s="1">
+        <f>C14+C17*0.8</f>
         <v>5456</v>
-      </c>
-      <c r="D18" s="1">
-        <f>C18*G13</f>
-        <v>1364</v>
-      </c>
-      <c r="E18" s="1">
-        <f>D18</f>
-        <v>1364</v>
-      </c>
-      <c r="F18" s="1">
-        <f>SUM(C18:E18)</f>
-        <v>8184</v>
-      </c>
-      <c r="G18">
-        <f>D18/C18</f>
-        <v>0.25</v>
-      </c>
-      <c r="H18" s="2">
-        <f>C18-C13</f>
-        <v>576</v>
-      </c>
-      <c r="I18" s="2">
-        <f>D18-D13</f>
-        <v>144</v>
-      </c>
-      <c r="J18" s="2">
-        <f>E13-(H18+I18)</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19">
-        <f>C19/C18</f>
-        <v>0.34164222873900291</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1">
-        <f>C14+C16-H18</f>
-        <v>1864</v>
       </c>
       <c r="D19" s="1">
         <f>C19*G14</f>
-        <v>932</v>
+        <v>1364</v>
       </c>
       <c r="E19" s="1">
         <f>D19</f>
-        <v>932</v>
+        <v>1364</v>
       </c>
       <c r="F19" s="1">
         <f>SUM(C19:E19)</f>
-        <v>3728</v>
+        <v>8184</v>
       </c>
       <c r="G19">
         <f>D19/C19</f>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H19" s="2">
         <f>C19-C14</f>
-        <v>144</v>
+        <v>576</v>
       </c>
       <c r="I19" s="2">
         <f>D19-D14</f>
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="J19" s="2">
         <f>E14-(H19+I19)</f>
-        <v>644</v>
-      </c>
-      <c r="L19" s="3">
-        <f>A19/A14</f>
-        <v>0.96931050944554309</v>
-      </c>
-      <c r="M19" s="5"/>
+        <v>500</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
+        <f>C20/C19</f>
+        <v>0.34164222873900291</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <f>C15+C17-H19</f>
+        <v>1864</v>
+      </c>
+      <c r="D20" s="1">
+        <f>C20*G15</f>
+        <v>932</v>
+      </c>
+      <c r="E20" s="1">
+        <f>D20</f>
+        <v>932</v>
+      </c>
+      <c r="F20" s="1">
+        <f>SUM(C20:E20)</f>
+        <v>3728</v>
+      </c>
+      <c r="G20">
         <f>D20/C20</f>
+        <v>0.5</v>
+      </c>
+      <c r="H20" s="2">
+        <f>C20-C15</f>
+        <v>144</v>
+      </c>
+      <c r="I20" s="2">
+        <f>D20-D15</f>
+        <v>72</v>
+      </c>
+      <c r="J20" s="2">
+        <f>E15-(H20+I20)</f>
+        <v>644</v>
+      </c>
+      <c r="L20" s="3">
+        <f>A20/A15</f>
+        <v>0.96931050944554309</v>
+      </c>
+      <c r="M20" s="5"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <f>D21/C21</f>
         <v>0.31366120218579235</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="1">
-        <f>SUM(C18:C19)</f>
+      <c r="C21" s="1">
+        <f>SUM(C19:C20)</f>
         <v>7320</v>
       </c>
-      <c r="D20" s="1">
-        <f t="shared" ref="D20:F20" si="4">SUM(D18:D19)</f>
+      <c r="D21" s="1">
+        <f t="shared" ref="D21:F21" si="4">SUM(D19:D20)</f>
         <v>2296</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E21" s="1">
         <f t="shared" si="4"/>
         <v>2296</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F21" s="1">
         <f t="shared" si="4"/>
         <v>11912</v>
       </c>
-      <c r="H20" s="1">
-        <f t="shared" ref="H20:I20" si="5">SUM(H18:H19)</f>
+      <c r="H21" s="1">
+        <f t="shared" ref="H21:I21" si="5">SUM(H19:H20)</f>
         <v>720</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I21" s="1">
         <f t="shared" si="5"/>
         <v>216</v>
       </c>
-      <c r="J20" s="1">
-        <f>SUM(J18:J19)</f>
+      <c r="J21" s="1">
+        <f>SUM(J19:J20)</f>
         <v>1144</v>
       </c>
-      <c r="K20" s="4">
-        <f>E20/(C20+D20)</f>
+      <c r="K21" s="4">
+        <f>E21/(C21+D21)</f>
         <v>0.23876871880199668</v>
       </c>
-      <c r="L20" s="9">
-        <f>A20/A15</f>
+      <c r="L21" s="9">
+        <f>A21/A16</f>
         <v>0.99527112232030279</v>
       </c>
-      <c r="M20" s="5">
-        <f>F20/F15-1</f>
+      <c r="M21" s="5">
+        <f>F21/F16-1</f>
         <v>0.10706319702602229</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="1" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="1">
-        <f>F18-C20</f>
+      <c r="C22" s="1">
+        <f>F19-C21</f>
         <v>864</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" t="s">
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="1">
-        <f>C18+C21*0.8</f>
+      <c r="C24" s="1">
+        <f>C19+C22*0.8</f>
         <v>6147.2</v>
-      </c>
-      <c r="D23" s="1">
-        <f>C23*G18</f>
-        <v>1536.8</v>
-      </c>
-      <c r="E23" s="1">
-        <f>D23</f>
-        <v>1536.8</v>
-      </c>
-      <c r="F23" s="1">
-        <f>SUM(C23:E23)</f>
-        <v>9220.7999999999993</v>
-      </c>
-      <c r="G23">
-        <f>D23/C23</f>
-        <v>0.25</v>
-      </c>
-      <c r="H23" s="2">
-        <f>C23-C18</f>
-        <v>691.19999999999982</v>
-      </c>
-      <c r="I23" s="2">
-        <f>D23-D18</f>
-        <v>172.79999999999995</v>
-      </c>
-      <c r="J23" s="2">
-        <f>E18-(H23+I23)</f>
-        <v>500.00000000000023</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24">
-        <f>C24/C23</f>
-        <v>0.33133784487246232</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1">
-        <f>C19+C21-H23</f>
-        <v>2036.8000000000002</v>
       </c>
       <c r="D24" s="1">
         <f>C24*G19</f>
-        <v>1018.4000000000001</v>
+        <v>1536.8</v>
       </c>
       <c r="E24" s="1">
         <f>D24</f>
-        <v>1018.4000000000001</v>
+        <v>1536.8</v>
       </c>
       <c r="F24" s="1">
         <f>SUM(C24:E24)</f>
-        <v>4073.6000000000004</v>
+        <v>9220.7999999999993</v>
       </c>
       <c r="G24">
         <f>D24/C24</f>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H24" s="2">
         <f>C24-C19</f>
-        <v>172.80000000000018</v>
+        <v>691.19999999999982</v>
       </c>
       <c r="I24" s="2">
         <f>D24-D19</f>
-        <v>86.400000000000091</v>
+        <v>172.79999999999995</v>
       </c>
       <c r="J24" s="2">
         <f>E19-(H24+I24)</f>
-        <v>672.79999999999973</v>
-      </c>
-      <c r="L24" s="3">
-        <f>A24/A19</f>
-        <v>0.96983867039922456</v>
-      </c>
-      <c r="M24" s="5"/>
+        <v>500.00000000000023</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
+        <f>C25/C24</f>
+        <v>0.33133784487246232</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <f>C20+C22-H24</f>
+        <v>2036.8000000000002</v>
+      </c>
+      <c r="D25" s="1">
+        <f>C25*G20</f>
+        <v>1018.4000000000001</v>
+      </c>
+      <c r="E25" s="1">
+        <f>D25</f>
+        <v>1018.4000000000001</v>
+      </c>
+      <c r="F25" s="1">
+        <f>SUM(C25:E25)</f>
+        <v>4073.6000000000004</v>
+      </c>
+      <c r="G25">
         <f>D25/C25</f>
+        <v>0.5</v>
+      </c>
+      <c r="H25" s="2">
+        <f>C25-C20</f>
+        <v>172.80000000000018</v>
+      </c>
+      <c r="I25" s="2">
+        <f>D25-D20</f>
+        <v>86.400000000000091</v>
+      </c>
+      <c r="J25" s="2">
+        <f>E20-(H25+I25)</f>
+        <v>672.79999999999973</v>
+      </c>
+      <c r="L25" s="3">
+        <f>A25/A20</f>
+        <v>0.96983867039922456</v>
+      </c>
+      <c r="M25" s="5"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26">
+        <f>D26/C26</f>
         <v>0.31221896383186704</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="1">
-        <f>SUM(C23:C24)</f>
+      <c r="C26" s="1">
+        <f>SUM(C24:C25)</f>
         <v>8184</v>
       </c>
-      <c r="D25" s="1">
-        <f t="shared" ref="D25:F25" si="6">SUM(D23:D24)</f>
+      <c r="D26" s="1">
+        <f t="shared" ref="D26:F26" si="6">SUM(D24:D25)</f>
         <v>2555.1999999999998</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E26" s="1">
         <f t="shared" si="6"/>
         <v>2555.1999999999998</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F26" s="1">
         <f t="shared" si="6"/>
         <v>13294.4</v>
       </c>
-      <c r="H25" s="1">
-        <f t="shared" ref="H25:I25" si="7">SUM(H23:H24)</f>
+      <c r="H26" s="1">
+        <f t="shared" ref="H26:I26" si="7">SUM(H24:H25)</f>
         <v>864</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I26" s="1">
         <f t="shared" si="7"/>
         <v>259.20000000000005</v>
       </c>
-      <c r="J25" s="1">
-        <f>SUM(J23:J24)</f>
+      <c r="J26" s="1">
+        <f>SUM(J24:J25)</f>
         <v>1172.8</v>
       </c>
-      <c r="K25" s="4">
-        <f>E25/(C25+D25)</f>
+      <c r="K26" s="4">
+        <f>E26/(C26+D26)</f>
         <v>0.23793206197854586</v>
       </c>
-      <c r="L25" s="9">
-        <f>A25/A20</f>
+      <c r="L26" s="9">
+        <f>A26/A21</f>
         <v>0.99540192301797326</v>
       </c>
-      <c r="M25" s="5">
-        <f>F25/F20-1</f>
+      <c r="M26" s="5">
+        <f>F26/F21-1</f>
         <v>0.11605104096709207</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="1" t="s">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="1">
-        <f>F23-C25</f>
+      <c r="C27" s="1">
+        <f>F24-C26</f>
         <v>1036.7999999999993</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" t="s">
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="1">
-        <f>C23+C26*0.8</f>
+      <c r="C29" s="1">
+        <f>C24+C27*0.8</f>
         <v>6976.6399999999994</v>
-      </c>
-      <c r="D28" s="1">
-        <f>C28*G23</f>
-        <v>1744.1599999999999</v>
-      </c>
-      <c r="E28" s="1">
-        <f>D28</f>
-        <v>1744.1599999999999</v>
-      </c>
-      <c r="F28" s="1">
-        <f>SUM(C28:E28)</f>
-        <v>10464.959999999999</v>
-      </c>
-      <c r="G28">
-        <f>D28/C28</f>
-        <v>0.25</v>
-      </c>
-      <c r="H28" s="2">
-        <f>C28-C23</f>
-        <v>829.4399999999996</v>
-      </c>
-      <c r="I28" s="2">
-        <f>D28-D23</f>
-        <v>207.3599999999999</v>
-      </c>
-      <c r="J28" s="2">
-        <f>E23-(H28+I28)</f>
-        <v>500.00000000000045</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29">
-        <f>C29/C28</f>
-        <v>0.3216677369048711</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="1">
-        <f>C24+C26-H28</f>
-        <v>2244.16</v>
       </c>
       <c r="D29" s="1">
         <f>C29*G24</f>
-        <v>1122.08</v>
+        <v>1744.1599999999999</v>
       </c>
       <c r="E29" s="1">
         <f>D29</f>
-        <v>1122.08</v>
+        <v>1744.1599999999999</v>
       </c>
       <c r="F29" s="1">
         <f>SUM(C29:E29)</f>
-        <v>4488.32</v>
+        <v>10464.959999999999</v>
       </c>
       <c r="G29">
         <f>D29/C29</f>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H29" s="2">
         <f>C29-C24</f>
-        <v>207.35999999999967</v>
+        <v>829.4399999999996</v>
       </c>
       <c r="I29" s="2">
         <f>D29-D24</f>
-        <v>103.67999999999984</v>
+        <v>207.3599999999999</v>
       </c>
       <c r="J29" s="2">
         <f>E24-(H29+I29)</f>
-        <v>707.36000000000058</v>
-      </c>
-      <c r="L29" s="3">
-        <f>A29/A24</f>
-        <v>0.97081496087078911</v>
-      </c>
-      <c r="M29" s="5"/>
+        <v>500.00000000000045</v>
+      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
+        <f>C30/C29</f>
+        <v>0.3216677369048711</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
+        <f>C25+C27-H29</f>
+        <v>2244.16</v>
+      </c>
+      <c r="D30" s="1">
+        <f>C30*G25</f>
+        <v>1122.08</v>
+      </c>
+      <c r="E30" s="1">
+        <f>D30</f>
+        <v>1122.08</v>
+      </c>
+      <c r="F30" s="1">
+        <f>SUM(C30:E30)</f>
+        <v>4488.32</v>
+      </c>
+      <c r="G30">
         <f>D30/C30</f>
+        <v>0.5</v>
+      </c>
+      <c r="H30" s="2">
+        <f>C30-C25</f>
+        <v>207.35999999999967</v>
+      </c>
+      <c r="I30" s="2">
+        <f>D30-D25</f>
+        <v>103.67999999999984</v>
+      </c>
+      <c r="J30" s="2">
+        <f>E25-(H30+I30)</f>
+        <v>707.36000000000058</v>
+      </c>
+      <c r="L30" s="3">
+        <f>A30/A25</f>
+        <v>0.97081496087078911</v>
+      </c>
+      <c r="M30" s="5"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31">
+        <f>D31/C31</f>
         <v>0.31084504598299495</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="1">
-        <f>SUM(C28:C29)</f>
+      <c r="C31" s="1">
+        <f>SUM(C29:C30)</f>
         <v>9220.7999999999993</v>
       </c>
-      <c r="D30" s="1">
-        <f t="shared" ref="D30:F30" si="8">SUM(D28:D29)</f>
+      <c r="D31" s="1">
+        <f t="shared" ref="D31:F31" si="8">SUM(D29:D30)</f>
         <v>2866.24</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E31" s="1">
         <f t="shared" si="8"/>
         <v>2866.24</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F31" s="1">
         <f t="shared" si="8"/>
         <v>14953.279999999999</v>
       </c>
-      <c r="H30" s="1">
-        <f t="shared" ref="H30:I30" si="9">SUM(H28:H29)</f>
+      <c r="H31" s="1">
+        <f t="shared" ref="H31:I31" si="9">SUM(H29:H30)</f>
         <v>1036.7999999999993</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I31" s="1">
         <f t="shared" si="9"/>
         <v>311.03999999999974</v>
       </c>
-      <c r="J30" s="1">
-        <f>SUM(J28:J29)</f>
+      <c r="J31" s="1">
+        <f>SUM(J29:J30)</f>
         <v>1207.360000000001</v>
       </c>
-      <c r="K30" s="4">
-        <f>E30/(C30+D30)</f>
+      <c r="K31" s="4">
+        <f>E31/(C31+D31)</f>
         <v>0.23713332627343006</v>
       </c>
-      <c r="L30" s="9">
-        <f>A30/A25</f>
+      <c r="L31" s="9">
+        <f>A31/A26</f>
         <v>0.99559950544960507</v>
       </c>
-      <c r="M30" s="5">
-        <f>F30/F25-1</f>
+      <c r="M31" s="5">
+        <f>F31/F26-1</f>
         <v>0.12478035864725001</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="1" t="s">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="1">
-        <f>F28-C30</f>
+      <c r="C32" s="1">
+        <f>F29-C31</f>
         <v>1244.1599999999999</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" t="s">
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="1">
-        <f>C28+C31*0.8</f>
+      <c r="C34" s="1">
+        <f>C29+C32*0.8</f>
         <v>7971.9679999999989</v>
-      </c>
-      <c r="D33" s="1">
-        <f>C33*G28</f>
-        <v>1992.9919999999997</v>
-      </c>
-      <c r="E33" s="1">
-        <f>D33</f>
-        <v>1992.9919999999997</v>
-      </c>
-      <c r="F33" s="1">
-        <f>SUM(C33:E33)</f>
-        <v>11957.951999999999</v>
-      </c>
-      <c r="G33">
-        <f>D33/C33</f>
-        <v>0.25</v>
-      </c>
-      <c r="H33" s="2">
-        <f>C33-C28</f>
-        <v>995.32799999999952</v>
-      </c>
-      <c r="I33" s="2">
-        <f>D33-D28</f>
-        <v>248.83199999999988</v>
-      </c>
-      <c r="J33" s="2">
-        <f>E28-(H33+I33)</f>
-        <v>500.00000000000045</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34">
-        <f>C34/C33</f>
-        <v>0.31271977007434054</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1">
-        <f>C29+C31-H33</f>
-        <v>2492.9920000000002</v>
       </c>
       <c r="D34" s="1">
         <f>C34*G29</f>
-        <v>1246.4960000000001</v>
+        <v>1992.9919999999997</v>
       </c>
       <c r="E34" s="1">
         <f>D34</f>
-        <v>1246.4960000000001</v>
+        <v>1992.9919999999997</v>
       </c>
       <c r="F34" s="1">
         <f>SUM(C34:E34)</f>
-        <v>4985.9840000000004</v>
+        <v>11957.951999999999</v>
       </c>
       <c r="G34">
         <f>D34/C34</f>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H34" s="2">
         <f>C34-C29</f>
-        <v>248.83200000000033</v>
+        <v>995.32799999999952</v>
       </c>
       <c r="I34" s="2">
         <f>D34-D29</f>
-        <v>124.41600000000017</v>
+        <v>248.83199999999988</v>
       </c>
       <c r="J34" s="2">
         <f>E29-(H34+I34)</f>
-        <v>748.83199999999943</v>
-      </c>
-      <c r="L34" s="3">
-        <f>A34/A29</f>
-        <v>0.97218257909037109</v>
-      </c>
-      <c r="M34" s="5"/>
+        <v>500.00000000000045</v>
+      </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
+        <f>C35/C34</f>
+        <v>0.31271977007434054</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1">
+        <f>C30+C32-H34</f>
+        <v>2492.9920000000002</v>
+      </c>
+      <c r="D35" s="1">
+        <f>C35*G30</f>
+        <v>1246.4960000000001</v>
+      </c>
+      <c r="E35" s="1">
+        <f>D35</f>
+        <v>1246.4960000000001</v>
+      </c>
+      <c r="F35" s="1">
+        <f>SUM(C35:E35)</f>
+        <v>4985.9840000000004</v>
+      </c>
+      <c r="G35">
         <f>D35/C35</f>
+        <v>0.5</v>
+      </c>
+      <c r="H35" s="2">
+        <f>C35-C30</f>
+        <v>248.83200000000033</v>
+      </c>
+      <c r="I35" s="2">
+        <f>D35-D30</f>
+        <v>124.41600000000017</v>
+      </c>
+      <c r="J35" s="2">
+        <f>E30-(H35+I35)</f>
+        <v>748.83199999999943</v>
+      </c>
+      <c r="L35" s="3">
+        <f>A35/A30</f>
+        <v>0.97218257909037109</v>
+      </c>
+      <c r="M35" s="5"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36">
+        <f>D36/C36</f>
         <v>0.30955569825398283</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="1">
-        <f>SUM(C33:C34)</f>
+      <c r="C36" s="1">
+        <f>SUM(C34:C35)</f>
         <v>10464.959999999999</v>
       </c>
-      <c r="D35" s="1">
-        <f t="shared" ref="D35:F35" si="10">SUM(D33:D34)</f>
+      <c r="D36" s="1">
+        <f t="shared" ref="D36:F36" si="10">SUM(D34:D35)</f>
         <v>3239.4879999999998</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E36" s="1">
         <f t="shared" si="10"/>
         <v>3239.4879999999998</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F36" s="1">
         <f t="shared" si="10"/>
         <v>16943.936000000002</v>
       </c>
-      <c r="H35" s="1">
-        <f t="shared" ref="H35:I35" si="11">SUM(H33:H34)</f>
+      <c r="H36" s="1">
+        <f t="shared" ref="H36:I36" si="11">SUM(H34:H35)</f>
         <v>1244.1599999999999</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I36" s="1">
         <f t="shared" si="11"/>
         <v>373.24800000000005</v>
       </c>
-      <c r="J35" s="1">
-        <f>SUM(J33:J34)</f>
+      <c r="J36" s="1">
+        <f>SUM(J34:J35)</f>
         <v>1248.8319999999999</v>
       </c>
-      <c r="K35" s="4">
-        <f>E35/(C35+D35)</f>
+      <c r="K36" s="4">
+        <f>E36/(C36+D36)</f>
         <v>0.23638223152074422</v>
       </c>
-      <c r="L35" s="9">
-        <f>A35/A30</f>
+      <c r="L36" s="9">
+        <f>A36/A31</f>
         <v>0.99585212070877704</v>
       </c>
-      <c r="M35" s="5">
-        <f>F35/F30-1</f>
+      <c r="M36" s="5">
+        <f>F36/F31-1</f>
         <v>0.13312504012497617</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="1" t="s">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="1">
-        <f>F33-C35</f>
+      <c r="C37" s="1">
+        <f>F34-C36</f>
         <v>1492.9920000000002</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" t="s">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="1">
-        <f>C33+C36*0.8</f>
+      <c r="C39" s="1">
+        <f>C34+C37*0.8</f>
         <v>9166.3615999999984</v>
-      </c>
-      <c r="D38" s="1">
-        <f>C38*G33</f>
-        <v>2291.5903999999996</v>
-      </c>
-      <c r="E38" s="1">
-        <f>D38</f>
-        <v>2291.5903999999996</v>
-      </c>
-      <c r="F38" s="1">
-        <f>SUM(C38:E38)</f>
-        <v>13749.542399999997</v>
-      </c>
-      <c r="G38">
-        <f>D38/C38</f>
-        <v>0.25</v>
-      </c>
-      <c r="H38" s="2">
-        <f>C38-C33</f>
-        <v>1194.3935999999994</v>
-      </c>
-      <c r="I38" s="2">
-        <f>D38-D33</f>
-        <v>298.59839999999986</v>
-      </c>
-      <c r="J38" s="2">
-        <f>E33-(H38+I38)</f>
-        <v>500.00000000000045</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39">
-        <f>C39/C38</f>
-        <v>0.30454726987859626</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="1">
-        <f>C34+C36-H38</f>
-        <v>2791.590400000001</v>
       </c>
       <c r="D39" s="1">
         <f>C39*G34</f>
-        <v>1395.7952000000005</v>
+        <v>2291.5903999999996</v>
       </c>
       <c r="E39" s="1">
         <f>D39</f>
-        <v>1395.7952000000005</v>
+        <v>2291.5903999999996</v>
       </c>
       <c r="F39" s="1">
         <f>SUM(C39:E39)</f>
-        <v>5583.1808000000019</v>
+        <v>13749.542399999997</v>
       </c>
       <c r="G39">
         <f>D39/C39</f>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H39" s="2">
         <f>C39-C34</f>
-        <v>298.59840000000077</v>
+        <v>1194.3935999999994</v>
       </c>
       <c r="I39" s="2">
         <f>D39-D34</f>
-        <v>149.29920000000038</v>
+        <v>298.59839999999986</v>
       </c>
       <c r="J39" s="2">
         <f>E34-(H39+I39)</f>
-        <v>798.59839999999895</v>
-      </c>
-      <c r="L39" s="3">
-        <f>A39/A34</f>
-        <v>0.97386637821522604</v>
-      </c>
-      <c r="M39" s="5"/>
+        <v>500.00000000000045</v>
+      </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
+        <f>C40/C39</f>
+        <v>0.30454726987859626</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1">
+        <f>C35+C37-H39</f>
+        <v>2791.590400000001</v>
+      </c>
+      <c r="D40" s="1">
+        <f>C40*G35</f>
+        <v>1395.7952000000005</v>
+      </c>
+      <c r="E40" s="1">
+        <f>D40</f>
+        <v>1395.7952000000005</v>
+      </c>
+      <c r="F40" s="1">
+        <f>SUM(C40:E40)</f>
+        <v>5583.1808000000019</v>
+      </c>
+      <c r="G40">
         <f>D40/C40</f>
+        <v>0.5</v>
+      </c>
+      <c r="H40" s="2">
+        <f>C40-C35</f>
+        <v>298.59840000000077</v>
+      </c>
+      <c r="I40" s="2">
+        <f>D40-D35</f>
+        <v>149.29920000000038</v>
+      </c>
+      <c r="J40" s="2">
+        <f>E35-(H40+I40)</f>
+        <v>798.59839999999895</v>
+      </c>
+      <c r="L40" s="3">
+        <f>A40/A35</f>
+        <v>0.97386637821522604</v>
+      </c>
+      <c r="M40" s="5"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41">
+        <f>D41/C41</f>
         <v>0.30836263600991209</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="1">
-        <f>SUM(C38:C39)</f>
+      <c r="C41" s="1">
+        <f>SUM(C39:C40)</f>
         <v>11957.951999999999</v>
       </c>
-      <c r="D40" s="1">
-        <f t="shared" ref="D40:F40" si="12">SUM(D38:D39)</f>
+      <c r="D41" s="1">
+        <f t="shared" ref="D41:F41" si="12">SUM(D39:D40)</f>
         <v>3687.3856000000001</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E41" s="1">
         <f t="shared" si="12"/>
         <v>3687.3856000000001</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F41" s="1">
         <f t="shared" si="12"/>
         <v>19332.7232</v>
       </c>
-      <c r="H40" s="1">
-        <f t="shared" ref="H40:I40" si="13">SUM(H38:H39)</f>
+      <c r="H41" s="1">
+        <f t="shared" ref="H41:I41" si="13">SUM(H39:H40)</f>
         <v>1492.9920000000002</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I41" s="1">
         <f t="shared" si="13"/>
         <v>447.89760000000024</v>
       </c>
-      <c r="J40" s="1">
-        <f>SUM(J38:J39)</f>
+      <c r="J41" s="1">
+        <f>SUM(J39:J40)</f>
         <v>1298.5983999999994</v>
       </c>
-      <c r="K40" s="4">
-        <f>E40/(C40+D40)</f>
+      <c r="K41" s="4">
+        <f>E41/(C41+D41)</f>
         <v>0.23568590811360954</v>
       </c>
-      <c r="L40" s="9">
-        <f>A40/A35</f>
+      <c r="L41" s="9">
+        <f>A41/A36</f>
         <v>0.99614588828181783</v>
       </c>
-      <c r="M40" s="5">
-        <f>F40/F35-1</f>
+      <c r="M41" s="5">
+        <f>F41/F36-1</f>
         <v>0.14098183562544131</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="1" t="s">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="1">
-        <f>F38-C40</f>
+      <c r="C42" s="1">
+        <f>F39-C41</f>
         <v>1791.5903999999973</v>
       </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" t="s">
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="1">
-        <f>C38+C41*0.8</f>
+      <c r="C44" s="1">
+        <f>C39+C42*0.8</f>
         <v>10599.633919999997</v>
-      </c>
-      <c r="D43" s="1">
-        <f>C43*G38</f>
-        <v>2649.9084799999991</v>
-      </c>
-      <c r="E43" s="1">
-        <f>D43</f>
-        <v>2649.9084799999991</v>
-      </c>
-      <c r="F43" s="1">
-        <f>SUM(C43:E43)</f>
-        <v>15899.450879999993</v>
-      </c>
-      <c r="G43">
-        <f>D43/C43</f>
-        <v>0.25</v>
-      </c>
-      <c r="H43" s="2">
-        <f>C43-C38</f>
-        <v>1433.2723199999982</v>
-      </c>
-      <c r="I43" s="2">
-        <f>D43-D38</f>
-        <v>358.31807999999955</v>
-      </c>
-      <c r="J43" s="2">
-        <f>E38-(H43+I43)</f>
-        <v>500.00000000000182</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44">
-        <f>C44/C43</f>
-        <v>0.29717144042650118</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="1">
-        <f>C39+C41-H43</f>
-        <v>3149.9084800000001</v>
       </c>
       <c r="D44" s="1">
         <f>C44*G39</f>
-        <v>1574.95424</v>
+        <v>2649.9084799999991</v>
       </c>
       <c r="E44" s="1">
         <f>D44</f>
-        <v>1574.95424</v>
+        <v>2649.9084799999991</v>
       </c>
       <c r="F44" s="1">
         <f>SUM(C44:E44)</f>
-        <v>6299.8169600000001</v>
+        <v>15899.450879999993</v>
       </c>
       <c r="G44">
         <f>D44/C44</f>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H44" s="2">
         <f>C44-C39</f>
-        <v>358.3180799999991</v>
+        <v>1433.2723199999982</v>
       </c>
       <c r="I44" s="2">
         <f>D44-D39</f>
-        <v>179.15903999999955</v>
+        <v>358.31807999999955</v>
       </c>
       <c r="J44" s="2">
         <f>E39-(H44+I44)</f>
-        <v>858.31808000000183</v>
-      </c>
-      <c r="L44" s="3">
-        <f>A44/A39</f>
-        <v>0.97578100287999503</v>
-      </c>
-      <c r="M44" s="5"/>
+        <v>500.00000000000182</v>
+      </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
+        <f>C45/C44</f>
+        <v>0.29717144042650118</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1">
+        <f>C40+C42-H44</f>
+        <v>3149.9084800000001</v>
+      </c>
+      <c r="D45" s="1">
+        <f>C45*G40</f>
+        <v>1574.95424</v>
+      </c>
+      <c r="E45" s="1">
+        <f>D45</f>
+        <v>1574.95424</v>
+      </c>
+      <c r="F45" s="1">
+        <f>SUM(C45:E45)</f>
+        <v>6299.8169600000001</v>
+      </c>
+      <c r="G45">
         <f>D45/C45</f>
+        <v>0.5</v>
+      </c>
+      <c r="H45" s="2">
+        <f>C45-C40</f>
+        <v>358.3180799999991</v>
+      </c>
+      <c r="I45" s="2">
+        <f>D45-D40</f>
+        <v>179.15903999999955</v>
+      </c>
+      <c r="J45" s="2">
+        <f>E40-(H45+I45)</f>
+        <v>858.31808000000183</v>
+      </c>
+      <c r="L45" s="3">
+        <f>A45/A40</f>
+        <v>0.97578100287999503</v>
+      </c>
+      <c r="M45" s="5"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46">
+        <f>D46/C46</f>
         <v>0.30727296931714615</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="1">
-        <f>SUM(C43:C44)</f>
+      <c r="C46" s="1">
+        <f>SUM(C44:C45)</f>
         <v>13749.542399999997</v>
       </c>
-      <c r="D45" s="1">
-        <f t="shared" ref="D45:F45" si="14">SUM(D43:D44)</f>
+      <c r="D46" s="1">
+        <f t="shared" ref="D46:F46" si="14">SUM(D44:D45)</f>
         <v>4224.8627199999992</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E46" s="1">
         <f t="shared" si="14"/>
         <v>4224.8627199999992</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F46" s="1">
         <f t="shared" si="14"/>
         <v>22199.267839999993</v>
       </c>
-      <c r="H45" s="1">
-        <f t="shared" ref="H45:I45" si="15">SUM(H43:H44)</f>
+      <c r="H46" s="1">
+        <f t="shared" ref="H46:I46" si="15">SUM(H44:H45)</f>
         <v>1791.5903999999973</v>
       </c>
-      <c r="I45" s="1">
+      <c r="I46" s="1">
         <f t="shared" si="15"/>
         <v>537.4771199999991</v>
       </c>
-      <c r="J45" s="1">
-        <f>SUM(J43:J44)</f>
+      <c r="J46" s="1">
+        <f>SUM(J44:J45)</f>
         <v>1358.3180800000036</v>
       </c>
-      <c r="K45" s="4">
-        <f>E45/(C45+D45)</f>
+      <c r="K46" s="4">
+        <f>E46/(C46+D46)</f>
         <v>0.23504882035283736</v>
       </c>
-      <c r="L45" s="9">
-        <f>A45/A40</f>
+      <c r="L46" s="9">
+        <f>A46/A41</f>
         <v>0.99646628169072038</v>
       </c>
-      <c r="M45" s="5">
-        <f>F45/F40-1</f>
+      <c r="M46" s="5">
+        <f>F46/F41-1</f>
         <v>0.14827422967499948</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="1" t="s">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="1">
-        <f>F43-C45</f>
+      <c r="C47" s="1">
+        <f>F44-C46</f>
         <v>2149.9084799999964</v>
       </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" t="s">
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="1">
-        <f>C43+C46*0.8</f>
+      <c r="C49" s="1">
+        <f>C44+C47*0.8</f>
         <v>12319.560703999994</v>
-      </c>
-      <c r="D48" s="1">
-        <f>C48*G43</f>
-        <v>3079.8901759999985</v>
-      </c>
-      <c r="E48" s="1">
-        <f>D48</f>
-        <v>3079.8901759999985</v>
-      </c>
-      <c r="F48" s="1">
-        <f>SUM(C48:E48)</f>
-        <v>18479.34105599999</v>
-      </c>
-      <c r="G48">
-        <f>D48/C48</f>
-        <v>0.25</v>
-      </c>
-      <c r="H48" s="2">
-        <f>C48-C43</f>
-        <v>1719.9267839999975</v>
-      </c>
-      <c r="I48" s="2">
-        <f>D48-D43</f>
-        <v>429.98169599999937</v>
-      </c>
-      <c r="J48" s="2">
-        <f>E43-(H48+I48)</f>
-        <v>500.00000000000227</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49">
-        <f>C49/C48</f>
-        <v>0.29058586276032206</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49" s="1">
-        <f>C44+C46-H48</f>
-        <v>3579.890175999999</v>
       </c>
       <c r="D49" s="1">
         <f>C49*G44</f>
-        <v>1789.9450879999995</v>
+        <v>3079.8901759999985</v>
       </c>
       <c r="E49" s="1">
         <f>D49</f>
-        <v>1789.9450879999995</v>
+        <v>3079.8901759999985</v>
       </c>
       <c r="F49" s="1">
         <f>SUM(C49:E49)</f>
-        <v>7159.7803519999979</v>
+        <v>18479.34105599999</v>
       </c>
       <c r="G49">
         <f>D49/C49</f>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H49" s="2">
         <f>C49-C44</f>
-        <v>429.98169599999892</v>
+        <v>1719.9267839999975</v>
       </c>
       <c r="I49" s="2">
         <f>D49-D44</f>
-        <v>214.99084799999946</v>
+        <v>429.98169599999937</v>
       </c>
       <c r="J49" s="2">
         <f>E44-(H49+I49)</f>
-        <v>929.98169600000165</v>
-      </c>
-      <c r="L49" s="3">
-        <f>A49/A44</f>
-        <v>0.97783912997585676</v>
-      </c>
-      <c r="M49" s="5"/>
+        <v>500.00000000000227</v>
+      </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
+        <f>C50/C49</f>
+        <v>0.29058586276032206</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1">
+        <f>C45+C47-H49</f>
+        <v>3579.890175999999</v>
+      </c>
+      <c r="D50" s="1">
+        <f>C50*G45</f>
+        <v>1789.9450879999995</v>
+      </c>
+      <c r="E50" s="1">
+        <f>D50</f>
+        <v>1789.9450879999995</v>
+      </c>
+      <c r="F50" s="1">
+        <f>SUM(C50:E50)</f>
+        <v>7159.7803519999979</v>
+      </c>
+      <c r="G50">
         <f>D50/C50</f>
+        <v>0.5</v>
+      </c>
+      <c r="H50" s="2">
+        <f>C50-C45</f>
+        <v>429.98169599999892</v>
+      </c>
+      <c r="I50" s="2">
+        <f>D50-D45</f>
+        <v>214.99084799999946</v>
+      </c>
+      <c r="J50" s="2">
+        <f>E45-(H50+I50)</f>
+        <v>929.98169600000165</v>
+      </c>
+      <c r="L50" s="3">
+        <f>A50/A45</f>
+        <v>0.97783912997585676</v>
+      </c>
+      <c r="M50" s="5"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51">
+        <f>D51/C51</f>
         <v>0.3062895253902001</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="1">
-        <f>SUM(C48:C49)</f>
+      <c r="C51" s="1">
+        <f>SUM(C49:C50)</f>
         <v>15899.450879999993</v>
       </c>
-      <c r="D50" s="1">
-        <f t="shared" ref="D50:F50" si="16">SUM(D48:D49)</f>
+      <c r="D51" s="1">
+        <f t="shared" ref="D51:F51" si="16">SUM(D49:D50)</f>
         <v>4869.8352639999976</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E51" s="1">
         <f t="shared" si="16"/>
         <v>4869.8352639999976</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F51" s="1">
         <f t="shared" si="16"/>
         <v>25639.121407999988</v>
       </c>
-      <c r="H50" s="1">
-        <f t="shared" ref="H50:I50" si="17">SUM(H48:H49)</f>
+      <c r="H51" s="1">
+        <f t="shared" ref="H51:I51" si="17">SUM(H49:H50)</f>
         <v>2149.9084799999964</v>
       </c>
-      <c r="I50" s="1">
+      <c r="I51" s="1">
         <f t="shared" si="17"/>
         <v>644.97254399999883</v>
       </c>
-      <c r="J50" s="1">
-        <f>SUM(J48:J49)</f>
+      <c r="J51" s="1">
+        <f>SUM(J49:J50)</f>
         <v>1429.9816960000039</v>
       </c>
-      <c r="K50" s="4">
-        <f>E50/(C50+D50)</f>
+      <c r="K51" s="4">
+        <f>E51/(C51+D51)</f>
         <v>0.2344729245981734</v>
       </c>
-      <c r="L50" s="9">
-        <f>A50/A45</f>
+      <c r="L51" s="9">
+        <f>A51/A46</f>
         <v>0.99679944536243603</v>
       </c>
-      <c r="M50" s="5">
-        <f>F50/F45-1</f>
+      <c r="M51" s="5">
+        <f>F51/F46-1</f>
         <v>0.15495346931225629</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" s="1" t="s">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="1">
-        <f>F48-C50</f>
+      <c r="C52" s="1">
+        <f>F49-C51</f>
         <v>2579.8901759999972</v>
       </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E95B74-9862-418D-BA3B-462B9CE1D294}">
+  <dimension ref="A1:N35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="16.26171875" customWidth="1"/>
+    <col min="7" max="7" width="2.62890625" customWidth="1"/>
+    <col min="8" max="8" width="18.41796875" customWidth="1"/>
+    <col min="9" max="9" width="12.578125" customWidth="1"/>
+    <col min="10" max="11" width="12.62890625" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="14" max="14" width="26.9453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+    </row>
+    <row r="2" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="48">
+        <v>225</v>
+      </c>
+      <c r="C4" s="30">
+        <v>90</v>
+      </c>
+      <c r="D4" s="30">
+        <v>60</v>
+      </c>
+      <c r="E4" s="65">
+        <f>B4+C4+D4</f>
+        <v>375</v>
+      </c>
+      <c r="H4" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="48">
+        <v>100</v>
+      </c>
+      <c r="C5" s="30">
+        <v>120</v>
+      </c>
+      <c r="D5" s="30">
+        <v>80</v>
+      </c>
+      <c r="E5" s="63">
+        <f>B5+C5+D5</f>
+        <v>300</v>
+      </c>
+      <c r="H5" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="48">
+        <v>50</v>
+      </c>
+      <c r="C6" s="30">
+        <v>90</v>
+      </c>
+      <c r="D6" s="30">
+        <v>60</v>
+      </c>
+      <c r="E6" s="61">
+        <f>B6+C6+D6</f>
+        <v>200</v>
+      </c>
+      <c r="H6" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+    </row>
+    <row r="7" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="59">
+        <f>SUM(B4:B6)</f>
+        <v>375</v>
+      </c>
+      <c r="C7" s="58">
+        <f>SUM(C4:C6)</f>
+        <v>300</v>
+      </c>
+      <c r="D7" s="57">
+        <f>SUM(D4:D6)</f>
+        <v>200</v>
+      </c>
+      <c r="E7" s="56">
+        <f>B7+C7+D7</f>
+        <v>875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="53"/>
+      <c r="H9" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="53"/>
+    </row>
+    <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="L10" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" s="33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="48">
+        <v>225</v>
+      </c>
+      <c r="C11" s="30">
+        <f>C4+D4</f>
+        <v>150</v>
+      </c>
+      <c r="D11" s="32">
+        <f>B11+C11</f>
+        <v>375</v>
+      </c>
+      <c r="E11" s="30">
+        <f>C4</f>
+        <v>90</v>
+      </c>
+      <c r="F11" s="49">
+        <f>C11-E11</f>
+        <v>60</v>
+      </c>
+      <c r="H11" s="48">
+        <f>B11+E11</f>
+        <v>315</v>
+      </c>
+      <c r="I11" s="26">
+        <f>F11/H11</f>
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="J11" s="26">
+        <f>H11*I14</f>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="K11" s="26">
+        <f>J11-F11</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="L11" s="28">
+        <f>B11+E11+J11</f>
+        <v>408.33333333333331</v>
+      </c>
+      <c r="M11" s="50">
+        <f>L11/D11</f>
+        <v>1.0888888888888888</v>
+      </c>
+      <c r="N11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="48">
+        <v>100</v>
+      </c>
+      <c r="C12" s="30">
+        <f>C5+D5</f>
+        <v>200</v>
+      </c>
+      <c r="D12" s="31">
+        <f>B12+C12</f>
+        <v>300</v>
+      </c>
+      <c r="E12" s="30">
+        <f>C5</f>
+        <v>120</v>
+      </c>
+      <c r="F12" s="49">
+        <f>C12-E12</f>
+        <v>80</v>
+      </c>
+      <c r="H12" s="48">
+        <f>B12+E12</f>
+        <v>220</v>
+      </c>
+      <c r="I12" s="26">
+        <f>F12/H12</f>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="J12" s="26">
+        <f>H12*I14</f>
+        <v>65.185185185185176</v>
+      </c>
+      <c r="K12" s="26">
+        <f>J12-F12</f>
+        <v>-14.814814814814824</v>
+      </c>
+      <c r="L12" s="28">
+        <f>B12+E12+J12</f>
+        <v>285.18518518518516</v>
+      </c>
+      <c r="M12" s="50">
+        <f>L12/D12</f>
+        <v>0.95061728395061718</v>
+      </c>
+      <c r="N12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="48">
+        <v>50</v>
+      </c>
+      <c r="C13" s="30">
+        <f>C6+D6</f>
+        <v>150</v>
+      </c>
+      <c r="D13" s="29">
+        <f>B13+C13</f>
+        <v>200</v>
+      </c>
+      <c r="E13" s="30">
+        <f>C6</f>
+        <v>90</v>
+      </c>
+      <c r="F13" s="49">
+        <f>C13-E13</f>
+        <v>60</v>
+      </c>
+      <c r="H13" s="48">
+        <f>B13+E13</f>
+        <v>140</v>
+      </c>
+      <c r="I13" s="26">
+        <f>F13/H13</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="J13" s="26">
+        <f>H13*I14</f>
+        <v>41.481481481481481</v>
+      </c>
+      <c r="K13" s="26">
+        <f>J13-F13</f>
+        <v>-18.518518518518519</v>
+      </c>
+      <c r="L13" s="28">
+        <f>B13+E13+J13</f>
+        <v>181.48148148148147</v>
+      </c>
+      <c r="M13" s="47">
+        <f>L13/D13</f>
+        <v>0.90740740740740733</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="24">
+        <f>SUM(B11:B13)</f>
+        <v>375</v>
+      </c>
+      <c r="C14" s="44">
+        <f>SUM(C11:C13)</f>
+        <v>500</v>
+      </c>
+      <c r="D14" s="44">
+        <f>SUM(D11:D13)</f>
+        <v>875</v>
+      </c>
+      <c r="E14" s="23">
+        <f>SUM(E11:E13)</f>
+        <v>300</v>
+      </c>
+      <c r="F14" s="22">
+        <f>SUM(F11:F13)</f>
+        <v>200</v>
+      </c>
+      <c r="H14" s="45">
+        <f>SUM(H11:H13)</f>
+        <v>675</v>
+      </c>
+      <c r="I14" s="20">
+        <f>F14/H14</f>
+        <v>0.29629629629629628</v>
+      </c>
+      <c r="J14" s="44">
+        <f>SUM(J11:J13)</f>
+        <v>200</v>
+      </c>
+      <c r="K14" s="44">
+        <f>SUM(K11:K13)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="44">
+        <f>SUM(L11:L13)</f>
+        <v>875</v>
+      </c>
+      <c r="M14" s="43"/>
+    </row>
+    <row r="15" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="M15" s="42"/>
+    </row>
+    <row r="16" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="38" t="str">
+        <f>C10</f>
+        <v>L(=V+S)</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="J16" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="K16" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="L16" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="M16" s="33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="27">
+        <f>B11*M11</f>
+        <v>244.99999999999997</v>
+      </c>
+      <c r="C17" s="30">
+        <f>C11</f>
+        <v>150</v>
+      </c>
+      <c r="D17" s="32">
+        <f>B17+C17</f>
+        <v>395</v>
+      </c>
+      <c r="E17" s="28">
+        <f>E11*M12</f>
+        <v>85.555555555555543</v>
+      </c>
+      <c r="F17" s="25">
+        <f>C17-E17</f>
+        <v>64.444444444444457</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="27">
+        <f>B17+E17</f>
+        <v>330.55555555555554</v>
+      </c>
+      <c r="I17" s="26">
+        <f>F17/H17</f>
+        <v>0.19495798319327737</v>
+      </c>
+      <c r="J17" s="26">
+        <f>H17*I20</f>
+        <v>102.38836967808932</v>
+      </c>
+      <c r="K17" s="26">
+        <f>J17-F17</f>
+        <v>37.943925233644862</v>
+      </c>
+      <c r="L17" s="26">
+        <f>B17+E17+J17</f>
+        <v>432.94392523364485</v>
+      </c>
+      <c r="M17" s="25">
+        <f>L17/D17</f>
+        <v>1.0960605702117592</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="27">
+        <f>B12*M11</f>
+        <v>108.88888888888889</v>
+      </c>
+      <c r="C18" s="30">
+        <f>C12</f>
+        <v>200</v>
+      </c>
+      <c r="D18" s="31">
+        <f>B18+C18</f>
+        <v>308.88888888888891</v>
+      </c>
+      <c r="E18" s="28">
+        <f>E12*M12</f>
+        <v>114.07407407407406</v>
+      </c>
+      <c r="F18" s="25">
+        <f>C18-E18</f>
+        <v>85.925925925925938</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="27">
+        <f>B18+E18</f>
+        <v>222.96296296296293</v>
+      </c>
+      <c r="I18" s="26">
+        <f>F18/H18</f>
+        <v>0.38538205980066453</v>
+      </c>
+      <c r="J18" s="26">
+        <f>H18*I20</f>
+        <v>69.0619591554171</v>
+      </c>
+      <c r="K18" s="26">
+        <f>J18-F18</f>
+        <v>-16.863966770508839</v>
+      </c>
+      <c r="L18" s="26">
+        <f>B18+E18+J18</f>
+        <v>292.02492211838</v>
+      </c>
+      <c r="M18" s="25">
+        <f>L18/D18</f>
+        <v>0.94540442412425174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="27">
+        <f>B13*M11</f>
+        <v>54.444444444444443</v>
+      </c>
+      <c r="C19" s="30">
+        <f>C13</f>
+        <v>150</v>
+      </c>
+      <c r="D19" s="29">
+        <f>B19+C19</f>
+        <v>204.44444444444446</v>
+      </c>
+      <c r="E19" s="28">
+        <f>E13*M12</f>
+        <v>85.555555555555543</v>
+      </c>
+      <c r="F19" s="25">
+        <f>C19-E19</f>
+        <v>64.444444444444457</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="27">
+        <f>B19+E19</f>
+        <v>140</v>
+      </c>
+      <c r="I19" s="26">
+        <f>F19/H19</f>
+        <v>0.4603174603174604</v>
+      </c>
+      <c r="J19" s="26">
+        <f>H19*I20</f>
+        <v>43.36448598130842</v>
+      </c>
+      <c r="K19" s="26">
+        <f>J19-F19</f>
+        <v>-21.079958463136037</v>
+      </c>
+      <c r="L19" s="26">
+        <f>B19+E19+J19</f>
+        <v>183.36448598130841</v>
+      </c>
+      <c r="M19" s="25">
+        <f>L19/D19</f>
+        <v>0.89689150751726932</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B20" s="24">
+        <f>SUM(B17:B19)</f>
+        <v>408.33333333333331</v>
+      </c>
+      <c r="C20" s="20">
+        <f>SUM(C17:C19)</f>
+        <v>500</v>
+      </c>
+      <c r="D20" s="20">
+        <f>SUM(D17:D19)</f>
+        <v>908.33333333333337</v>
+      </c>
+      <c r="E20" s="23">
+        <f>SUM(E17:E19)</f>
+        <v>285.18518518518516</v>
+      </c>
+      <c r="F20" s="22">
+        <f>SUM(F17:F19)</f>
+        <v>214.81481481481484</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="21">
+        <f>SUM(H17:H19)</f>
+        <v>693.51851851851848</v>
+      </c>
+      <c r="I20" s="20">
+        <f>F20/H20</f>
+        <v>0.30974632843791727</v>
+      </c>
+      <c r="J20" s="20">
+        <f>SUM(J17:J19)</f>
+        <v>214.81481481481484</v>
+      </c>
+      <c r="K20" s="20">
+        <f>SUM(K17:K19)</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="20">
+        <f>SUM(L17:L19)</f>
+        <v>908.33333333333326</v>
+      </c>
+      <c r="M20" s="19"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="H22" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="H23" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="H24" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="H25" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A26" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="M26" s="40"/>
+    </row>
+    <row r="27" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="38" t="str">
+        <f>C16</f>
+        <v>L(=V+S)</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="36"/>
+      <c r="H27" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="I27" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="J27" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="K27" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="L27" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="M27" s="33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="27">
+        <f>B17*M17</f>
+        <v>268.53483970188097</v>
+      </c>
+      <c r="C28" s="30">
+        <f>C17</f>
+        <v>150</v>
+      </c>
+      <c r="D28" s="32">
+        <f>B28+C28</f>
+        <v>418.53483970188097</v>
+      </c>
+      <c r="E28" s="28">
+        <f>E17*$M$12</f>
+        <v>81.33058984910835</v>
+      </c>
+      <c r="F28" s="25">
+        <f>C28-E28</f>
+        <v>68.66941015089165</v>
+      </c>
+      <c r="G28" s="10"/>
+      <c r="H28" s="27">
+        <f>B28+E28</f>
+        <v>349.86542955098935</v>
+      </c>
+      <c r="I28" s="26">
+        <f>F28/H28</f>
+        <v>0.1962737794329113</v>
+      </c>
+      <c r="J28" s="26">
+        <f>H28*I31</f>
+        <v>111.43448268784891</v>
+      </c>
+      <c r="K28" s="26">
+        <f>J28-F28</f>
+        <v>42.765072536957263</v>
+      </c>
+      <c r="L28" s="26">
+        <f>B28+E28+J28</f>
+        <v>461.29991223883826</v>
+      </c>
+      <c r="M28" s="25">
+        <f>L28/D28</f>
+        <v>1.1021780470352684</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="27">
+        <f>B18*M17</f>
+        <v>119.34881764528043</v>
+      </c>
+      <c r="C29" s="30">
+        <f>C18</f>
+        <v>200</v>
+      </c>
+      <c r="D29" s="31">
+        <f>B29+C29</f>
+        <v>319.34881764528041</v>
+      </c>
+      <c r="E29" s="28">
+        <f>E18*$M$12</f>
+        <v>108.4407864654778</v>
+      </c>
+      <c r="F29" s="25">
+        <f>C29-E29</f>
+        <v>91.5592135345222</v>
+      </c>
+      <c r="G29" s="10"/>
+      <c r="H29" s="27">
+        <f>B29+E29</f>
+        <v>227.78960411075823</v>
+      </c>
+      <c r="I29" s="26">
+        <f>F29/H29</f>
+        <v>0.40194640967900941</v>
+      </c>
+      <c r="J29" s="26">
+        <f>H29*I31</f>
+        <v>72.552514629207863</v>
+      </c>
+      <c r="K29" s="26">
+        <f>J29-F29</f>
+        <v>-19.006698905314337</v>
+      </c>
+      <c r="L29" s="26">
+        <f>B29+E29+J29</f>
+        <v>300.34211873996611</v>
+      </c>
+      <c r="M29" s="25">
+        <f>L29/D29</f>
+        <v>0.9404829520100928</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="27">
+        <f>B19*M17</f>
+        <v>59.674408822640217</v>
+      </c>
+      <c r="C30" s="30">
+        <f>C19</f>
+        <v>150</v>
+      </c>
+      <c r="D30" s="29">
+        <f>B30+C30</f>
+        <v>209.6744088226402</v>
+      </c>
+      <c r="E30" s="28">
+        <f>E19*$M$12</f>
+        <v>81.33058984910835</v>
+      </c>
+      <c r="F30" s="25">
+        <f>C30-E30</f>
+        <v>68.66941015089165</v>
+      </c>
+      <c r="G30" s="10"/>
+      <c r="H30" s="27">
+        <f>B30+E30</f>
+        <v>141.00499867174858</v>
+      </c>
+      <c r="I30" s="26">
+        <f>F30/H30</f>
+        <v>0.48699982835892247</v>
+      </c>
+      <c r="J30" s="26">
+        <f>H30*I31</f>
+        <v>44.911036519248732</v>
+      </c>
+      <c r="K30" s="26">
+        <f>J30-F30</f>
+        <v>-23.758373631642918</v>
+      </c>
+      <c r="L30" s="26">
+        <f>B30+E30+J30</f>
+        <v>185.91603519099732</v>
+      </c>
+      <c r="M30" s="25">
+        <f>L30/D30</f>
+        <v>0.88668920654146366</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B31" s="24">
+        <f>SUM(B28:B30)</f>
+        <v>447.55806616980158</v>
+      </c>
+      <c r="C31" s="20">
+        <f>SUM(C28:C30)</f>
+        <v>500</v>
+      </c>
+      <c r="D31" s="20">
+        <f>SUM(D28:D30)</f>
+        <v>947.55806616980158</v>
+      </c>
+      <c r="E31" s="23">
+        <f>SUM(E28:E30)</f>
+        <v>271.1019661636945</v>
+      </c>
+      <c r="F31" s="22">
+        <f>SUM(F28:F30)</f>
+        <v>228.8980338363055</v>
+      </c>
+      <c r="G31" s="10"/>
+      <c r="H31" s="21">
+        <f>SUM(H28:H30)</f>
+        <v>718.66003233349613</v>
+      </c>
+      <c r="I31" s="20">
+        <f>F31/H31</f>
+        <v>0.31850669793486547</v>
+      </c>
+      <c r="J31" s="20">
+        <f>SUM(J28:J30)</f>
+        <v>228.8980338363055</v>
+      </c>
+      <c r="K31" s="20">
+        <f>SUM(K28:K30)</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="20">
+        <f>SUM(L28:L30)</f>
+        <v>947.55806616980158</v>
+      </c>
+      <c r="M31" s="19"/>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H6:K6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/docs/spreadsheet illustrations.xlsx
+++ b/docs/spreadsheet illustrations.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afree\eclipse-workspace\capitalism-9.0\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA01C68-E24D-4130-A713-F324D2975AB6}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25602" windowHeight="10380" firstSheet="1" activeTab="7" xr2:uid="{C55A22BB-D4E7-40F3-AC2B-802623670D01}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25602" windowHeight="10380" firstSheet="1" activeTab="3" xr2:uid="{C55A22BB-D4E7-40F3-AC2B-802623670D01}"/>
   </bookViews>
   <sheets>
     <sheet name="Simple Reproduction" sheetId="9" r:id="rId1"/>
@@ -741,9 +742,6 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
@@ -796,39 +794,42 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2494,10 +2495,10 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="18"/>
+      <c r="H4" s="60"/>
     </row>
     <row r="5" spans="1:16" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="6" t="s">
@@ -2733,10 +2734,10 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="18"/>
+      <c r="H12" s="60"/>
     </row>
     <row r="13" spans="1:16" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="6" t="s">
@@ -2979,12 +2980,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C77ED3-DCBF-4325-9E6B-9BF828DE079E}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
+    <col min="2" max="2" width="16.15625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.3125" customWidth="1"/>
     <col min="9" max="9" width="13.15625" customWidth="1"/>
   </cols>
@@ -3150,7 +3152,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:E6"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3172,10 +3174,10 @@
         <v>0.1</v>
       </c>
       <c r="N1"/>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="18"/>
+      <c r="Q1" s="60"/>
     </row>
     <row r="2" spans="1:19" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="C2" s="6" t="s">
@@ -6087,7 +6089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E95B74-9862-418D-BA3B-462B9CE1D294}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
@@ -6103,24 +6105,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
     </row>
     <row r="2" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="40" t="s">
         <v>91</v>
       </c>
     </row>
@@ -6128,172 +6130,172 @@
       <c r="A3" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="67" t="s">
+      <c r="E3" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="66" t="s">
+      <c r="H3" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="48">
+      <c r="B4" s="47">
         <v>225</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="29">
         <v>90</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="29">
         <v>60</v>
       </c>
-      <c r="E4" s="65">
+      <c r="E4" s="58">
         <f>B4+C4+D4</f>
         <v>375</v>
       </c>
-      <c r="H4" s="64" t="s">
+      <c r="H4" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="48">
+      <c r="B5" s="47">
         <v>100</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="29">
         <v>120</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="29">
         <v>80</v>
       </c>
-      <c r="E5" s="63">
+      <c r="E5" s="57">
         <f>B5+C5+D5</f>
         <v>300</v>
       </c>
-      <c r="H5" s="62" t="s">
+      <c r="H5" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="48">
+      <c r="B6" s="47">
         <v>50</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="29">
         <v>90</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="29">
         <v>60</v>
       </c>
-      <c r="E6" s="61">
+      <c r="E6" s="56">
         <f>B6+C6+D6</f>
         <v>200</v>
       </c>
-      <c r="H6" s="60" t="s">
+      <c r="H6" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
     </row>
     <row r="7" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="59">
+      <c r="B7" s="55">
         <f>SUM(B4:B6)</f>
         <v>375</v>
       </c>
-      <c r="C7" s="58">
+      <c r="C7" s="54">
         <f>SUM(C4:C6)</f>
         <v>300</v>
       </c>
-      <c r="D7" s="57">
+      <c r="D7" s="53">
         <f>SUM(D4:D6)</f>
         <v>200</v>
       </c>
-      <c r="E7" s="56">
+      <c r="E7" s="52">
         <f>B7+C7+D7</f>
         <v>875</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="53"/>
-      <c r="H9" s="55" t="s">
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="64"/>
+      <c r="H9" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="53"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="64"/>
     </row>
     <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="51" t="s">
+      <c r="E10" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="32" t="s">
         <v>4</v>
       </c>
       <c r="G10" s="6"/>
-      <c r="H10" s="52" t="s">
+      <c r="H10" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="I10" s="51" t="s">
+      <c r="I10" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="J10" s="51" t="s">
+      <c r="J10" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="K10" s="51" t="s">
+      <c r="K10" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="L10" s="51" t="s">
+      <c r="L10" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="M10" s="33" t="s">
+      <c r="M10" s="32" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6301,46 +6303,46 @@
       <c r="A11" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="48">
+      <c r="B11" s="47">
         <v>225</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="29">
         <f>C4+D4</f>
         <v>150</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="31">
         <f>B11+C11</f>
         <v>375</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="29">
         <f>C4</f>
         <v>90</v>
       </c>
-      <c r="F11" s="49">
+      <c r="F11" s="48">
         <f>C11-E11</f>
         <v>60</v>
       </c>
-      <c r="H11" s="48">
+      <c r="H11" s="47">
         <f>B11+E11</f>
         <v>315</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="25">
         <f>F11/H11</f>
         <v>0.19047619047619047</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="25">
         <f>H11*I14</f>
         <v>93.333333333333329</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="25">
         <f>J11-F11</f>
         <v>33.333333333333329</v>
       </c>
-      <c r="L11" s="28">
+      <c r="L11" s="27">
         <f>B11+E11+J11</f>
         <v>408.33333333333331</v>
       </c>
-      <c r="M11" s="50">
+      <c r="M11" s="49">
         <f>L11/D11</f>
         <v>1.0888888888888888</v>
       </c>
@@ -6352,46 +6354,46 @@
       <c r="A12" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="48">
+      <c r="B12" s="47">
         <v>100</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="29">
         <f>C5+D5</f>
         <v>200</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="30">
         <f>B12+C12</f>
         <v>300</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="29">
         <f>C5</f>
         <v>120</v>
       </c>
-      <c r="F12" s="49">
+      <c r="F12" s="48">
         <f>C12-E12</f>
         <v>80</v>
       </c>
-      <c r="H12" s="48">
+      <c r="H12" s="47">
         <f>B12+E12</f>
         <v>220</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="25">
         <f>F12/H12</f>
         <v>0.36363636363636365</v>
       </c>
-      <c r="J12" s="26">
+      <c r="J12" s="25">
         <f>H12*I14</f>
         <v>65.185185185185176</v>
       </c>
-      <c r="K12" s="26">
+      <c r="K12" s="25">
         <f>J12-F12</f>
         <v>-14.814814814814824</v>
       </c>
-      <c r="L12" s="28">
+      <c r="L12" s="27">
         <f>B12+E12+J12</f>
         <v>285.18518518518516</v>
       </c>
-      <c r="M12" s="50">
+      <c r="M12" s="49">
         <f>L12/D12</f>
         <v>0.95061728395061718</v>
       </c>
@@ -6403,136 +6405,136 @@
       <c r="A13" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="48">
+      <c r="B13" s="47">
         <v>50</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="29">
         <f>C6+D6</f>
         <v>150</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="28">
         <f>B13+C13</f>
         <v>200</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="29">
         <f>C6</f>
         <v>90</v>
       </c>
-      <c r="F13" s="49">
+      <c r="F13" s="48">
         <f>C13-E13</f>
         <v>60</v>
       </c>
-      <c r="H13" s="48">
+      <c r="H13" s="47">
         <f>B13+E13</f>
         <v>140</v>
       </c>
-      <c r="I13" s="26">
+      <c r="I13" s="25">
         <f>F13/H13</f>
         <v>0.42857142857142855</v>
       </c>
-      <c r="J13" s="26">
+      <c r="J13" s="25">
         <f>H13*I14</f>
         <v>41.481481481481481</v>
       </c>
-      <c r="K13" s="26">
+      <c r="K13" s="25">
         <f>J13-F13</f>
         <v>-18.518518518518519</v>
       </c>
-      <c r="L13" s="28">
+      <c r="L13" s="27">
         <f>B13+E13+J13</f>
         <v>181.48148148148147</v>
       </c>
-      <c r="M13" s="47">
+      <c r="M13" s="46">
         <f>L13/D13</f>
         <v>0.90740740740740733</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="23">
         <f>SUM(B11:B13)</f>
         <v>375</v>
       </c>
-      <c r="C14" s="44">
+      <c r="C14" s="43">
         <f>SUM(C11:C13)</f>
         <v>500</v>
       </c>
-      <c r="D14" s="44">
+      <c r="D14" s="43">
         <f>SUM(D11:D13)</f>
         <v>875</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="22">
         <f>SUM(E11:E13)</f>
         <v>300</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="21">
         <f>SUM(F11:F13)</f>
         <v>200</v>
       </c>
-      <c r="H14" s="45">
+      <c r="H14" s="44">
         <f>SUM(H11:H13)</f>
         <v>675</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="19">
         <f>F14/H14</f>
         <v>0.29629629629629628</v>
       </c>
-      <c r="J14" s="44">
+      <c r="J14" s="43">
         <f>SUM(J11:J13)</f>
         <v>200</v>
       </c>
-      <c r="K14" s="44">
+      <c r="K14" s="43">
         <f>SUM(K11:K13)</f>
         <v>0</v>
       </c>
-      <c r="L14" s="44">
+      <c r="L14" s="43">
         <f>SUM(L11:L13)</f>
         <v>875</v>
       </c>
-      <c r="M14" s="43"/>
+      <c r="M14" s="42"/>
     </row>
     <row r="15" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="M15" s="42"/>
+      <c r="M15" s="41"/>
     </row>
     <row r="16" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="38" t="str">
+      <c r="C16" s="37" t="str">
         <f>C10</f>
         <v>L(=V+S)</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="37" t="s">
+      <c r="F16" s="36" t="s">
         <v>4</v>
       </c>
       <c r="G16" s="6"/>
-      <c r="H16" s="35" t="s">
+      <c r="H16" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="I16" s="34" t="s">
+      <c r="I16" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="J16" s="34" t="s">
+      <c r="J16" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="K16" s="34" t="s">
+      <c r="K16" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="L16" s="34" t="s">
+      <c r="L16" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="M16" s="33" t="s">
+      <c r="M16" s="32" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6540,48 +6542,48 @@
       <c r="A17" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="26">
         <f>B11*M11</f>
         <v>244.99999999999997</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="29">
         <f>C11</f>
         <v>150</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="31">
         <f>B17+C17</f>
         <v>395</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="27">
         <f>E11*M12</f>
         <v>85.555555555555543</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="24">
         <f>C17-E17</f>
         <v>64.444444444444457</v>
       </c>
       <c r="G17" s="10"/>
-      <c r="H17" s="27">
+      <c r="H17" s="26">
         <f>B17+E17</f>
         <v>330.55555555555554</v>
       </c>
-      <c r="I17" s="26">
+      <c r="I17" s="25">
         <f>F17/H17</f>
         <v>0.19495798319327737</v>
       </c>
-      <c r="J17" s="26">
+      <c r="J17" s="25">
         <f>H17*I20</f>
         <v>102.38836967808932</v>
       </c>
-      <c r="K17" s="26">
+      <c r="K17" s="25">
         <f>J17-F17</f>
         <v>37.943925233644862</v>
       </c>
-      <c r="L17" s="26">
+      <c r="L17" s="25">
         <f>B17+E17+J17</f>
         <v>432.94392523364485</v>
       </c>
-      <c r="M17" s="25">
+      <c r="M17" s="24">
         <f>L17/D17</f>
         <v>1.0960605702117592</v>
       </c>
@@ -6590,48 +6592,48 @@
       <c r="A18" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="26">
         <f>B12*M11</f>
         <v>108.88888888888889</v>
       </c>
-      <c r="C18" s="30">
+      <c r="C18" s="29">
         <f>C12</f>
         <v>200</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D18" s="30">
         <f>B18+C18</f>
         <v>308.88888888888891</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="27">
         <f>E12*M12</f>
         <v>114.07407407407406</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="24">
         <f>C18-E18</f>
         <v>85.925925925925938</v>
       </c>
       <c r="G18" s="10"/>
-      <c r="H18" s="27">
+      <c r="H18" s="26">
         <f>B18+E18</f>
         <v>222.96296296296293</v>
       </c>
-      <c r="I18" s="26">
+      <c r="I18" s="25">
         <f>F18/H18</f>
         <v>0.38538205980066453</v>
       </c>
-      <c r="J18" s="26">
+      <c r="J18" s="25">
         <f>H18*I20</f>
         <v>69.0619591554171</v>
       </c>
-      <c r="K18" s="26">
+      <c r="K18" s="25">
         <f>J18-F18</f>
         <v>-16.863966770508839</v>
       </c>
-      <c r="L18" s="26">
+      <c r="L18" s="25">
         <f>B18+E18+J18</f>
         <v>292.02492211838</v>
       </c>
-      <c r="M18" s="25">
+      <c r="M18" s="24">
         <f>L18/D18</f>
         <v>0.94540442412425174</v>
       </c>
@@ -6640,95 +6642,95 @@
       <c r="A19" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="27">
+      <c r="B19" s="26">
         <f>B13*M11</f>
         <v>54.444444444444443</v>
       </c>
-      <c r="C19" s="30">
+      <c r="C19" s="29">
         <f>C13</f>
         <v>150</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="28">
         <f>B19+C19</f>
         <v>204.44444444444446</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="27">
         <f>E13*M12</f>
         <v>85.555555555555543</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="24">
         <f>C19-E19</f>
         <v>64.444444444444457</v>
       </c>
       <c r="G19" s="10"/>
-      <c r="H19" s="27">
+      <c r="H19" s="26">
         <f>B19+E19</f>
         <v>140</v>
       </c>
-      <c r="I19" s="26">
+      <c r="I19" s="25">
         <f>F19/H19</f>
         <v>0.4603174603174604</v>
       </c>
-      <c r="J19" s="26">
+      <c r="J19" s="25">
         <f>H19*I20</f>
         <v>43.36448598130842</v>
       </c>
-      <c r="K19" s="26">
+      <c r="K19" s="25">
         <f>J19-F19</f>
         <v>-21.079958463136037</v>
       </c>
-      <c r="L19" s="26">
+      <c r="L19" s="25">
         <f>B19+E19+J19</f>
         <v>183.36448598130841</v>
       </c>
-      <c r="M19" s="25">
+      <c r="M19" s="24">
         <f>L19/D19</f>
         <v>0.89689150751726932</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B20" s="24">
+      <c r="B20" s="23">
         <f>SUM(B17:B19)</f>
         <v>408.33333333333331</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="19">
         <f>SUM(C17:C19)</f>
         <v>500</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="19">
         <f>SUM(D17:D19)</f>
         <v>908.33333333333337</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="22">
         <f>SUM(E17:E19)</f>
         <v>285.18518518518516</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="21">
         <f>SUM(F17:F19)</f>
         <v>214.81481481481484</v>
       </c>
       <c r="G20" s="10"/>
-      <c r="H20" s="21">
+      <c r="H20" s="20">
         <f>SUM(H17:H19)</f>
         <v>693.51851851851848</v>
       </c>
-      <c r="I20" s="20">
+      <c r="I20" s="19">
         <f>F20/H20</f>
         <v>0.30974632843791727</v>
       </c>
-      <c r="J20" s="20">
+      <c r="J20" s="19">
         <f>SUM(J17:J19)</f>
         <v>214.81481481481484</v>
       </c>
-      <c r="K20" s="20">
+      <c r="K20" s="19">
         <f>SUM(K17:K19)</f>
         <v>0</v>
       </c>
-      <c r="L20" s="20">
+      <c r="L20" s="19">
         <f>SUM(L17:L19)</f>
         <v>908.33333333333326</v>
       </c>
-      <c r="M20" s="19"/>
+      <c r="M20" s="18"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="H22" s="7" t="s">
@@ -6751,45 +6753,45 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="M26" s="40"/>
+      <c r="M26" s="39"/>
     </row>
     <row r="27" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="38" t="str">
+      <c r="C27" s="37" t="str">
         <f>C16</f>
         <v>L(=V+S)</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="E27" s="38" t="s">
+      <c r="E27" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="F27" s="37" t="s">
+      <c r="F27" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G27" s="36"/>
-      <c r="H27" s="35" t="s">
+      <c r="G27" s="35"/>
+      <c r="H27" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="I27" s="34" t="s">
+      <c r="I27" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="J27" s="34" t="s">
+      <c r="J27" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="K27" s="34" t="s">
+      <c r="K27" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="L27" s="34" t="s">
+      <c r="L27" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="M27" s="33" t="s">
+      <c r="M27" s="32" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6797,48 +6799,48 @@
       <c r="A28" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="27">
+      <c r="B28" s="26">
         <f>B17*M17</f>
         <v>268.53483970188097</v>
       </c>
-      <c r="C28" s="30">
+      <c r="C28" s="29">
         <f>C17</f>
         <v>150</v>
       </c>
-      <c r="D28" s="32">
+      <c r="D28" s="31">
         <f>B28+C28</f>
         <v>418.53483970188097</v>
       </c>
-      <c r="E28" s="28">
+      <c r="E28" s="27">
         <f>E17*$M$12</f>
         <v>81.33058984910835</v>
       </c>
-      <c r="F28" s="25">
+      <c r="F28" s="24">
         <f>C28-E28</f>
         <v>68.66941015089165</v>
       </c>
       <c r="G28" s="10"/>
-      <c r="H28" s="27">
+      <c r="H28" s="26">
         <f>B28+E28</f>
         <v>349.86542955098935</v>
       </c>
-      <c r="I28" s="26">
+      <c r="I28" s="25">
         <f>F28/H28</f>
         <v>0.1962737794329113</v>
       </c>
-      <c r="J28" s="26">
+      <c r="J28" s="25">
         <f>H28*I31</f>
         <v>111.43448268784891</v>
       </c>
-      <c r="K28" s="26">
+      <c r="K28" s="25">
         <f>J28-F28</f>
         <v>42.765072536957263</v>
       </c>
-      <c r="L28" s="26">
+      <c r="L28" s="25">
         <f>B28+E28+J28</f>
         <v>461.29991223883826</v>
       </c>
-      <c r="M28" s="25">
+      <c r="M28" s="24">
         <f>L28/D28</f>
         <v>1.1021780470352684</v>
       </c>
@@ -6847,48 +6849,48 @@
       <c r="A29" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="27">
+      <c r="B29" s="26">
         <f>B18*M17</f>
         <v>119.34881764528043</v>
       </c>
-      <c r="C29" s="30">
+      <c r="C29" s="29">
         <f>C18</f>
         <v>200</v>
       </c>
-      <c r="D29" s="31">
+      <c r="D29" s="30">
         <f>B29+C29</f>
         <v>319.34881764528041</v>
       </c>
-      <c r="E29" s="28">
+      <c r="E29" s="27">
         <f>E18*$M$12</f>
         <v>108.4407864654778</v>
       </c>
-      <c r="F29" s="25">
+      <c r="F29" s="24">
         <f>C29-E29</f>
         <v>91.5592135345222</v>
       </c>
       <c r="G29" s="10"/>
-      <c r="H29" s="27">
+      <c r="H29" s="26">
         <f>B29+E29</f>
         <v>227.78960411075823</v>
       </c>
-      <c r="I29" s="26">
+      <c r="I29" s="25">
         <f>F29/H29</f>
         <v>0.40194640967900941</v>
       </c>
-      <c r="J29" s="26">
+      <c r="J29" s="25">
         <f>H29*I31</f>
         <v>72.552514629207863</v>
       </c>
-      <c r="K29" s="26">
+      <c r="K29" s="25">
         <f>J29-F29</f>
         <v>-19.006698905314337</v>
       </c>
-      <c r="L29" s="26">
+      <c r="L29" s="25">
         <f>B29+E29+J29</f>
         <v>300.34211873996611</v>
       </c>
-      <c r="M29" s="25">
+      <c r="M29" s="24">
         <f>L29/D29</f>
         <v>0.9404829520100928</v>
       </c>
@@ -6897,95 +6899,95 @@
       <c r="A30" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="27">
+      <c r="B30" s="26">
         <f>B19*M17</f>
         <v>59.674408822640217</v>
       </c>
-      <c r="C30" s="30">
+      <c r="C30" s="29">
         <f>C19</f>
         <v>150</v>
       </c>
-      <c r="D30" s="29">
+      <c r="D30" s="28">
         <f>B30+C30</f>
         <v>209.6744088226402</v>
       </c>
-      <c r="E30" s="28">
+      <c r="E30" s="27">
         <f>E19*$M$12</f>
         <v>81.33058984910835</v>
       </c>
-      <c r="F30" s="25">
+      <c r="F30" s="24">
         <f>C30-E30</f>
         <v>68.66941015089165</v>
       </c>
       <c r="G30" s="10"/>
-      <c r="H30" s="27">
+      <c r="H30" s="26">
         <f>B30+E30</f>
         <v>141.00499867174858</v>
       </c>
-      <c r="I30" s="26">
+      <c r="I30" s="25">
         <f>F30/H30</f>
         <v>0.48699982835892247</v>
       </c>
-      <c r="J30" s="26">
+      <c r="J30" s="25">
         <f>H30*I31</f>
         <v>44.911036519248732</v>
       </c>
-      <c r="K30" s="26">
+      <c r="K30" s="25">
         <f>J30-F30</f>
         <v>-23.758373631642918</v>
       </c>
-      <c r="L30" s="26">
+      <c r="L30" s="25">
         <f>B30+E30+J30</f>
         <v>185.91603519099732</v>
       </c>
-      <c r="M30" s="25">
+      <c r="M30" s="24">
         <f>L30/D30</f>
         <v>0.88668920654146366</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B31" s="24">
+      <c r="B31" s="23">
         <f>SUM(B28:B30)</f>
         <v>447.55806616980158</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="19">
         <f>SUM(C28:C30)</f>
         <v>500</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="19">
         <f>SUM(D28:D30)</f>
         <v>947.55806616980158</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E31" s="22">
         <f>SUM(E28:E30)</f>
         <v>271.1019661636945</v>
       </c>
-      <c r="F31" s="22">
+      <c r="F31" s="21">
         <f>SUM(F28:F30)</f>
         <v>228.8980338363055</v>
       </c>
       <c r="G31" s="10"/>
-      <c r="H31" s="21">
+      <c r="H31" s="20">
         <f>SUM(H28:H30)</f>
         <v>718.66003233349613</v>
       </c>
-      <c r="I31" s="20">
+      <c r="I31" s="19">
         <f>F31/H31</f>
         <v>0.31850669793486547</v>
       </c>
-      <c r="J31" s="20">
+      <c r="J31" s="19">
         <f>SUM(J28:J30)</f>
         <v>228.8980338363055</v>
       </c>
-      <c r="K31" s="20">
+      <c r="K31" s="19">
         <f>SUM(K28:K30)</f>
         <v>0</v>
       </c>
-      <c r="L31" s="20">
+      <c r="L31" s="19">
         <f>SUM(L28:L30)</f>
         <v>947.55806616980158</v>
       </c>
-      <c r="M31" s="19"/>
+      <c r="M31" s="18"/>
     </row>
     <row r="33" spans="8:8" x14ac:dyDescent="0.55000000000000004">
       <c r="H33" t="s">

--- a/docs/spreadsheet illustrations.xlsx
+++ b/docs/spreadsheet illustrations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afree\eclipse-workspace\capitalism-9.0\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA01C68-E24D-4130-A713-F324D2975AB6}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADA3D89-7F1F-4572-8F9A-E2699B17EA35}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25602" windowHeight="10380" firstSheet="1" activeTab="3" xr2:uid="{C55A22BB-D4E7-40F3-AC2B-802623670D01}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25602" windowHeight="10380" firstSheet="1" activeTab="4" xr2:uid="{C55A22BB-D4E7-40F3-AC2B-802623670D01}"/>
   </bookViews>
   <sheets>
     <sheet name="Simple Reproduction" sheetId="9" r:id="rId1"/>
@@ -2980,8 +2980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C77ED3-DCBF-4325-9E6B-9BF828DE079E}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3148,11 +3148,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C93B651D-F4FB-4BF9-BD8B-3835EA09B3FA}">
   <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3162,7 +3162,7 @@
     <col min="10" max="10" width="10.3671875" customWidth="1"/>
     <col min="11" max="13" width="11.3125" customWidth="1"/>
     <col min="14" max="14" width="8.9453125" style="3"/>
-    <col min="18" max="18" width="11.41796875" customWidth="1"/>
+    <col min="18" max="18" width="13.3125" customWidth="1"/>
     <col min="19" max="19" width="10.20703125" customWidth="1"/>
   </cols>
   <sheetData>
